--- a/Projeto/BDII_ControloProgressoProjecto_v2.xlsx
+++ b/Projeto/BDII_ControloProgressoProjecto_v2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\BD2\restauro_de_veiculos\Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F079A32-C2F5-4C35-8FDB-7A58C2947BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F33D6C-B8B7-44BD-B22A-0DD2FBA4E817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tracking Projecto" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tracking Projecto'!$A$1:$G$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tracking Projecto'!$A$1:$G$64</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="110">
   <si>
     <t>Data Relatório:</t>
   </si>
@@ -349,6 +349,15 @@
   </si>
   <si>
     <t xml:space="preserve">    Página 13 (Adminsitrador) -&gt; Exportação e importação de tarefas de restauro de viaturas (JSON ou XML</t>
+  </si>
+  <si>
+    <t>João</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Página 14 (Adminsitrador) criar fatura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Página 15 (Adminsitrador e cliente)-&gt; ver dados da fatura</t>
   </si>
 </sst>
 </file>
@@ -358,7 +367,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -381,8 +390,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +428,36 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -706,7 +751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -751,9 +796,6 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -783,9 +825,57 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1191,9 +1281,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMJ61"/>
+  <dimension ref="A1:AMJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
@@ -1359,25 +1449,31 @@
         <v>22</v>
       </c>
       <c r="C11" s="11">
-        <v>45227</v>
+        <v>45474</v>
       </c>
       <c r="D11" s="12">
-        <v>45247</v>
+        <v>45504</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="10"/>
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="14"/>
+      <c r="C12" s="100">
+        <v>45474</v>
+      </c>
+      <c r="D12" s="101">
+        <v>45474</v>
+      </c>
+      <c r="E12" s="98" t="s">
+        <v>91</v>
+      </c>
       <c r="F12" s="18">
         <v>0</v>
       </c>
@@ -1386,15 +1482,21 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="20"/>
+      <c r="C13" s="104">
+        <v>45475</v>
+      </c>
+      <c r="D13" s="105">
+        <v>45478</v>
+      </c>
+      <c r="E13" s="102" t="s">
+        <v>91</v>
+      </c>
       <c r="F13" s="24">
         <v>0</v>
       </c>
@@ -1403,15 +1505,21 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="20"/>
+      <c r="C14" s="104">
+        <v>45479</v>
+      </c>
+      <c r="D14" s="106">
+        <v>45482</v>
+      </c>
+      <c r="E14" s="102" t="s">
+        <v>91</v>
+      </c>
       <c r="F14" s="24">
         <v>0</v>
       </c>
@@ -1420,15 +1528,21 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="20"/>
+      <c r="C15" s="96">
+        <v>45483</v>
+      </c>
+      <c r="D15" s="97">
+        <v>45485</v>
+      </c>
+      <c r="E15" s="80" t="s">
+        <v>87</v>
+      </c>
       <c r="F15" s="18">
         <v>0</v>
       </c>
@@ -1437,15 +1551,21 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="20"/>
+      <c r="C16" s="96">
+        <v>45486</v>
+      </c>
+      <c r="D16" s="97">
+        <v>45492</v>
+      </c>
+      <c r="E16" s="80" t="s">
+        <v>87</v>
+      </c>
       <c r="F16" s="18">
         <v>0</v>
       </c>
@@ -1454,15 +1574,21 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="20"/>
+      <c r="C17" s="93">
+        <v>45493</v>
+      </c>
+      <c r="D17" s="94">
+        <v>45503</v>
+      </c>
+      <c r="E17" s="66" t="s">
+        <v>82</v>
+      </c>
       <c r="F17" s="24">
         <v>0</v>
       </c>
@@ -1471,15 +1597,17 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="20"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="73" t="s">
+        <v>85</v>
+      </c>
       <c r="F18" s="24">
         <v>0</v>
       </c>
@@ -1516,25 +1644,29 @@
         <v>39</v>
       </c>
       <c r="C20" s="11">
-        <v>45248</v>
+        <v>45505</v>
       </c>
       <c r="D20" s="12">
-        <v>45281</v>
+        <v>45529</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="20" t="s">
+      <c r="C21" s="93">
+        <v>45505</v>
+      </c>
+      <c r="D21" s="94">
+        <v>45505</v>
+      </c>
+      <c r="E21" s="66" t="s">
         <v>82</v>
       </c>
       <c r="F21" s="18">
@@ -1545,15 +1677,19 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="20" t="s">
+      <c r="C22" s="90">
+        <v>45505</v>
+      </c>
+      <c r="D22" s="91">
+        <v>45514</v>
+      </c>
+      <c r="E22" s="73" t="s">
         <v>85</v>
       </c>
       <c r="F22" s="18">
@@ -1564,15 +1700,15 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="20" t="s">
+      <c r="C23" s="104"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="102" t="s">
         <v>86</v>
       </c>
       <c r="F23" s="18">
@@ -1583,15 +1719,15 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="20" t="s">
+      <c r="C24" s="104"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="102" t="s">
         <v>86</v>
       </c>
       <c r="F24" s="18">
@@ -1602,15 +1738,15 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="20" t="s">
+      <c r="C25" s="104"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="102" t="s">
         <v>86</v>
       </c>
       <c r="F25" s="18">
@@ -1621,148 +1757,146 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="20" t="s">
+      <c r="C26" s="104"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="24">
+        <v>0</v>
+      </c>
+      <c r="G26" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="68"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="18">
+        <v>0</v>
+      </c>
+      <c r="G27" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="82"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="24">
-        <v>0</v>
-      </c>
-      <c r="G26" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="F28" s="18">
+        <v>0</v>
+      </c>
+      <c r="G28" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="29" t="s">
+      <c r="B29" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="68"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="18">
+        <v>0</v>
+      </c>
+      <c r="G29" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="82"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="18">
-        <v>0</v>
-      </c>
-      <c r="G27" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="F30" s="18">
+        <v>0</v>
+      </c>
+      <c r="G30" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="75"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="18">
+        <v>0</v>
+      </c>
+      <c r="G31" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="18">
-        <v>0</v>
-      </c>
-      <c r="G28" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="B32" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="75"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="18">
+        <v>0</v>
+      </c>
+      <c r="G32" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="18">
-        <v>0</v>
-      </c>
-      <c r="G29" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30" s="18">
-        <v>0</v>
-      </c>
-      <c r="G30" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="F31" s="18">
-        <v>0</v>
-      </c>
-      <c r="G31" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="F32" s="18">
-        <v>0</v>
-      </c>
-      <c r="G32" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="29" t="s">
+      <c r="C33" s="75"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="77" t="s">
         <v>85</v>
       </c>
       <c r="F33" s="18">
@@ -1784,42 +1918,44 @@
       <c r="E34" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="F34" s="66">
-        <v>0</v>
-      </c>
-      <c r="G34" s="66">
+      <c r="F34" s="63">
+        <v>0</v>
+      </c>
+      <c r="G34" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="64" t="s">
+      <c r="A35" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="64" t="s">
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="85" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="63">
+        <v>0</v>
+      </c>
+      <c r="G35" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="68"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="F35" s="66">
-        <v>0</v>
-      </c>
-      <c r="G35" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="29"/>
       <c r="F36" s="18">
         <v>0</v>
       </c>
@@ -1828,15 +1964,17 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="29"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="84" t="s">
+        <v>87</v>
+      </c>
       <c r="F37" s="18">
         <v>0</v>
       </c>
@@ -1845,15 +1983,17 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="29"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="77" t="s">
+        <v>85</v>
+      </c>
       <c r="F38" s="18">
         <v>0</v>
       </c>
@@ -1862,297 +2002,290 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="64" t="s">
+      <c r="A39" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="66">
-        <v>0</v>
-      </c>
-      <c r="G39" s="66">
+      <c r="C39" s="79"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" s="63">
+        <v>0</v>
+      </c>
+      <c r="G39" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="64" t="s">
+      <c r="A40" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="64" t="s">
+      <c r="B40" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="66">
-        <v>0</v>
-      </c>
-      <c r="G40" s="66">
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" s="63">
+        <v>0</v>
+      </c>
+      <c r="G40" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="64" t="s">
+      <c r="A41" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="66">
-        <v>0</v>
-      </c>
-      <c r="G41" s="66">
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" s="63">
+        <v>0</v>
+      </c>
+      <c r="G41" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="64" t="s">
+      <c r="A42" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="64" t="s">
+      <c r="B42" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="66">
-        <v>0</v>
-      </c>
-      <c r="G42" s="66">
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" s="63">
+        <v>0</v>
+      </c>
+      <c r="G42" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="64" t="s">
+      <c r="A43" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="66">
-        <v>0</v>
-      </c>
-      <c r="G43" s="66">
+      <c r="C43" s="88"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="F43" s="63">
+        <v>0</v>
+      </c>
+      <c r="G43" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="64" t="s">
+      <c r="A44" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="64" t="s">
+      <c r="B44" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="66">
-        <v>0</v>
-      </c>
-      <c r="G44" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="30" t="s">
+      <c r="C44" s="88"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" s="63">
+        <v>0</v>
+      </c>
+      <c r="G44" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="107" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="108" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="109"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="111" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="18">
+        <v>0</v>
+      </c>
+      <c r="G45" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="86"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="85" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" s="63">
+        <v>0</v>
+      </c>
+      <c r="G46" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B51" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="32">
+      <c r="C51" s="32">
         <v>45281</v>
       </c>
-      <c r="D48" s="32">
+      <c r="D51" s="32">
         <v>45281</v>
       </c>
-      <c r="E48" s="30"/>
-      <c r="F48" s="34">
-        <v>0</v>
-      </c>
-      <c r="G48" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
+      <c r="E51" s="30"/>
+      <c r="F51" s="34">
+        <v>0</v>
+      </c>
+      <c r="G51" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B52" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C52" s="11">
         <v>45282</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D52" s="12">
         <v>45303</v>
       </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="9"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
+      <c r="E52" s="9"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B53" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="14" t="s">
+      <c r="C53" s="16"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F50" s="18">
-        <v>0</v>
-      </c>
-      <c r="G50" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="29" t="s">
+      <c r="F53" s="18">
+        <v>0</v>
+      </c>
+      <c r="G53" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B54" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="37"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="18">
-        <v>0</v>
-      </c>
-      <c r="G51" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="40" t="s">
+      <c r="C54" s="36"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="18">
+        <v>0</v>
+      </c>
+      <c r="G54" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="40" t="s">
+      <c r="B55" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="42">
-        <v>0</v>
-      </c>
-      <c r="G52" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="43" t="s">
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="41">
+        <v>0</v>
+      </c>
+      <c r="G55" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="44" t="s">
+      <c r="B56" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="45">
+      <c r="C56" s="44">
         <v>45304</v>
       </c>
-      <c r="D53" s="46" t="s">
+      <c r="D56" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="E53" s="43"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="43"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="47" t="s">
+      <c r="E56" s="42"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="42"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="48" t="s">
+      <c r="B57" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="49"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="51" t="s">
+      <c r="C57" s="48"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="F54" s="52">
-        <v>0</v>
-      </c>
-      <c r="G54" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="54" t="s">
+      <c r="F57" s="51">
+        <v>0</v>
+      </c>
+      <c r="G57" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="55" t="s">
+      <c r="B58" s="54" t="s">
         <v>69</v>
-      </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F55" s="24">
-        <v>0</v>
-      </c>
-      <c r="G55" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F56" s="24">
-        <v>0</v>
-      </c>
-      <c r="G56" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" s="22"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F57" s="24">
-        <v>0</v>
-      </c>
-      <c r="G57" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="B58" s="56" t="s">
-        <v>75</v>
       </c>
       <c r="C58" s="22"/>
       <c r="D58" s="23"/>
@@ -2167,11 +2300,11 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="B59" s="56" t="s">
-        <v>77</v>
+      <c r="A59" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>71</v>
       </c>
       <c r="C59" s="22"/>
       <c r="D59" s="23"/>
@@ -2186,11 +2319,11 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60" s="56" t="s">
-        <v>79</v>
+      <c r="A60" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="55" t="s">
+        <v>73</v>
       </c>
       <c r="C60" s="22"/>
       <c r="D60" s="23"/>
@@ -2204,26 +2337,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="57" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="22"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F61" s="24">
+        <v>0</v>
+      </c>
+      <c r="G61" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="22"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F62" s="24">
+        <v>0</v>
+      </c>
+      <c r="G62" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="22"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F63" s="24">
+        <v>0</v>
+      </c>
+      <c r="G63" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="58" t="s">
+      <c r="B64" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="C61" s="59"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="62">
-        <v>0</v>
-      </c>
-      <c r="G61" s="63">
+      <c r="C64" s="58"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="61">
+        <v>0</v>
+      </c>
+      <c r="G64" s="62">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23611111111111099" right="0.23611111111111099" top="0.74791666666666701" bottom="0.74791666666666701" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Projeto/BDII_ControloProgressoProjecto_v2.xlsx
+++ b/Projeto/BDII_ControloProgressoProjecto_v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\BD2\restauro_de_veiculos\Projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\BD2\restauro_de_veiculos\Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F33D6C-B8B7-44BD-B22A-0DD2FBA4E817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3214A14F-BE9B-4260-B4E6-AB1F4C9DBB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracking Projecto" sheetId="1" r:id="rId1"/>
@@ -367,7 +367,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -392,6 +392,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -751,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -876,6 +884,7 @@
     <xf numFmtId="164" fontId="3" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1283,22 +1292,22 @@
   </sheetPr>
   <dimension ref="A1:AMJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
     <col min="6" max="7" width="17" style="1" customWidth="1"/>
-    <col min="8" max="1024" width="9.140625" style="1"/>
+    <col min="8" max="1024" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1306,13 +1315,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45212</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1335,7 +1344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
@@ -1352,7 +1361,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
@@ -1369,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>13</v>
       </c>
@@ -1386,7 +1395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
@@ -1403,7 +1412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>17</v>
       </c>
@@ -1420,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>19</v>
       </c>
@@ -1441,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -1458,7 +1467,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="98" t="s">
         <v>23</v>
       </c>
@@ -1481,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="102" t="s">
         <v>25</v>
       </c>
@@ -1504,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="102" t="s">
         <v>27</v>
       </c>
@@ -1527,7 +1536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="80" t="s">
         <v>29</v>
       </c>
@@ -1550,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="80" t="s">
         <v>31</v>
       </c>
@@ -1573,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="66" t="s">
         <v>33</v>
       </c>
@@ -1596,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="73" t="s">
         <v>35</v>
       </c>
@@ -1615,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>19</v>
       </c>
@@ -1636,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>38</v>
       </c>
@@ -1653,7 +1662,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="66" t="s">
         <v>40</v>
       </c>
@@ -1676,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="73" t="s">
         <v>41</v>
       </c>
@@ -1699,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="102" t="s">
         <v>42</v>
       </c>
@@ -1718,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="102" t="s">
         <v>44</v>
       </c>
@@ -1737,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="102" t="s">
         <v>46</v>
       </c>
@@ -1756,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="102" t="s">
         <v>48</v>
       </c>
@@ -1773,7 +1782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="66" t="s">
         <v>50</v>
       </c>
@@ -1792,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="80" t="s">
         <v>51</v>
       </c>
@@ -1811,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="66" t="s">
         <v>50</v>
       </c>
@@ -1830,7 +1839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="80" t="s">
         <v>51</v>
       </c>
@@ -1849,15 +1858,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="73" t="s">
         <v>50</v>
       </c>
       <c r="B31" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="75"/>
-      <c r="D31" s="76"/>
+      <c r="C31" s="75">
+        <v>45505</v>
+      </c>
+      <c r="D31" s="76">
+        <v>45512</v>
+      </c>
       <c r="E31" s="77" t="s">
         <v>85</v>
       </c>
@@ -1868,14 +1881,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="73" t="s">
         <v>51</v>
       </c>
       <c r="B32" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="75"/>
+      <c r="C32" s="75">
+        <v>45515</v>
+      </c>
       <c r="D32" s="76"/>
       <c r="E32" s="77" t="s">
         <v>85</v>
@@ -1887,14 +1902,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="73" t="s">
         <v>50</v>
       </c>
       <c r="B33" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="75"/>
+      <c r="C33" s="112"/>
       <c r="D33" s="76"/>
       <c r="E33" s="77" t="s">
         <v>85</v>
@@ -1906,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="64" t="s">
         <v>51</v>
       </c>
@@ -1925,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="85" t="s">
         <v>51</v>
       </c>
@@ -1944,7 +1959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="66" t="s">
         <v>52</v>
       </c>
@@ -1963,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="80" t="s">
         <v>51</v>
       </c>
@@ -1982,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="73" t="s">
         <v>50</v>
       </c>
@@ -2001,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="78" t="s">
         <v>51</v>
       </c>
@@ -2020,7 +2035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="71" t="s">
         <v>51</v>
       </c>
@@ -2039,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="87" t="s">
         <v>51</v>
       </c>
@@ -2058,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="87" t="s">
         <v>51</v>
       </c>
@@ -2077,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="87" t="s">
         <v>51</v>
       </c>
@@ -2096,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="87" t="s">
         <v>51</v>
       </c>
@@ -2115,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="107" t="s">
         <v>51</v>
       </c>
@@ -2134,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="85" t="s">
         <v>51</v>
       </c>
@@ -2153,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="30" t="s">
         <v>53</v>
       </c>
@@ -2174,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>55</v>
       </c>
@@ -2191,7 +2206,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="9"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
         <v>57</v>
       </c>
@@ -2210,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="29" t="s">
         <v>59</v>
       </c>
@@ -2227,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="39" t="s">
         <v>61</v>
       </c>
@@ -2244,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="42" t="s">
         <v>63</v>
       </c>
@@ -2261,7 +2276,7 @@
       <c r="F56" s="43"/>
       <c r="G56" s="42"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="46" t="s">
         <v>66</v>
       </c>
@@ -2280,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="53" t="s">
         <v>68</v>
       </c>
@@ -2299,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="53" t="s">
         <v>70</v>
       </c>
@@ -2318,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="53" t="s">
         <v>72</v>
       </c>
@@ -2337,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="53" t="s">
         <v>74</v>
       </c>
@@ -2356,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="53" t="s">
         <v>76</v>
       </c>
@@ -2375,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="53" t="s">
         <v>78</v>
       </c>
@@ -2394,7 +2409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="56" t="s">
         <v>80</v>
       </c>

--- a/Projeto/BDII_ControloProgressoProjecto_v2.xlsx
+++ b/Projeto/BDII_ControloProgressoProjecto_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\BD2\restauro_de_veiculos\Projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\BD2\restauro_de_veiculos\Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3214A14F-BE9B-4260-B4E6-AB1F4C9DBB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CE40EC-3F37-46B2-A236-984B1E52BA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracking Projecto" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="110">
   <si>
     <t>Data Relatório:</t>
   </si>
@@ -294,9 +294,6 @@
     <t>Gabriel</t>
   </si>
   <si>
-    <t xml:space="preserve">    Página 1 (Cliente) - &gt; Dashboard -&gt; lista de carros</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Página 1 (Login)</t>
   </si>
   <si>
@@ -309,9 +306,6 @@
     <t xml:space="preserve">    Página 3 (Cliente) -&gt; lista das Faturas</t>
   </si>
   <si>
-    <t xml:space="preserve">    Página 4 (Cliente)-&gt; Lista Reparos-&gt; ver reparos</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Página 1 (Adminsitrador)-&gt; registrar clientes</t>
   </si>
   <si>
@@ -339,9 +333,6 @@
     <t xml:space="preserve">    Página 9 (Adminsitrador) -&gt; listar mão de obra</t>
   </si>
   <si>
-    <t xml:space="preserve">    Página 10 (Adminsitrador) -&gt; editar dados dos usuarios</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Página 11 (Adminsitrador) -&gt; editar dados de um veiculo</t>
   </si>
   <si>
@@ -358,6 +349,15 @@
   </si>
   <si>
     <t xml:space="preserve">    Página 15 (Adminsitrador e cliente)-&gt; ver dados da fatura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Página 1 (Cliente) lista de carros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Página 4 (Cliente)-&gt; ver reparos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Página 10 (Adminsitrador) -&gt; editar dados dos cliente</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,6 +466,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1A983"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -759,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -834,8 +846,6 @@
     <xf numFmtId="9" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -879,12 +889,29 @@
     <xf numFmtId="164" fontId="1" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -958,6 +985,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFF1A983"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1292,22 +1322,22 @@
   </sheetPr>
   <dimension ref="A1:AMJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
     <col min="6" max="7" width="17" style="1" customWidth="1"/>
-    <col min="8" max="1024" width="9.109375" style="1"/>
+    <col min="8" max="1024" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1315,13 +1345,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45212</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1344,7 +1374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
@@ -1361,7 +1391,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
@@ -1378,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>13</v>
       </c>
@@ -1395,7 +1425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
@@ -1412,7 +1442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>17</v>
       </c>
@@ -1429,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>19</v>
       </c>
@@ -1450,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -1467,21 +1497,21 @@
       <c r="F11" s="10"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="98" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="100">
+      <c r="C12" s="98">
         <v>45474</v>
       </c>
-      <c r="D12" s="101">
+      <c r="D12" s="99">
         <v>45474</v>
       </c>
-      <c r="E12" s="98" t="s">
-        <v>91</v>
+      <c r="E12" s="96" t="s">
+        <v>90</v>
       </c>
       <c r="F12" s="18">
         <v>0</v>
@@ -1490,21 +1520,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="102" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="104">
+      <c r="C13" s="102">
         <v>45475</v>
       </c>
-      <c r="D13" s="105">
+      <c r="D13" s="103">
         <v>45478</v>
       </c>
-      <c r="E13" s="102" t="s">
-        <v>91</v>
+      <c r="E13" s="100" t="s">
+        <v>90</v>
       </c>
       <c r="F13" s="24">
         <v>0</v>
@@ -1513,21 +1543,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="102" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="104">
+      <c r="C14" s="102">
         <v>45479</v>
       </c>
-      <c r="D14" s="106">
+      <c r="D14" s="104">
         <v>45482</v>
       </c>
-      <c r="E14" s="102" t="s">
-        <v>91</v>
+      <c r="E14" s="100" t="s">
+        <v>90</v>
       </c>
       <c r="F14" s="24">
         <v>0</v>
@@ -1536,20 +1566,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="80" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="96">
+      <c r="C15" s="94">
         <v>45483</v>
       </c>
-      <c r="D15" s="97">
+      <c r="D15" s="95">
         <v>45485</v>
       </c>
-      <c r="E15" s="80" t="s">
+      <c r="E15" s="78" t="s">
         <v>87</v>
       </c>
       <c r="F15" s="18">
@@ -1559,20 +1589,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="80" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="96">
+      <c r="C16" s="94">
         <v>45486</v>
       </c>
-      <c r="D16" s="97">
+      <c r="D16" s="95">
         <v>45492</v>
       </c>
-      <c r="E16" s="80" t="s">
+      <c r="E16" s="78" t="s">
         <v>87</v>
       </c>
       <c r="F16" s="18">
@@ -1582,20 +1612,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="66" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="93">
+      <c r="C17" s="91">
         <v>45493</v>
       </c>
-      <c r="D17" s="94">
+      <c r="D17" s="92">
         <v>45503</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="64" t="s">
         <v>82</v>
       </c>
       <c r="F17" s="24">
@@ -1605,16 +1635,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="73" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="73" t="s">
+      <c r="C18" s="88"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="71" t="s">
         <v>85</v>
       </c>
       <c r="F18" s="24">
@@ -1624,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>19</v>
       </c>
@@ -1645,7 +1675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>38</v>
       </c>
@@ -1662,20 +1692,20 @@
       <c r="F20" s="10"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="66" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="92" t="s">
+      <c r="B21" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="93">
+      <c r="C21" s="91">
         <v>45505</v>
       </c>
-      <c r="D21" s="94">
+      <c r="D21" s="92">
         <v>45505</v>
       </c>
-      <c r="E21" s="66" t="s">
+      <c r="E21" s="64" t="s">
         <v>82</v>
       </c>
       <c r="F21" s="18">
@@ -1685,20 +1715,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="73" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="90">
+      <c r="C22" s="88">
         <v>45505</v>
       </c>
-      <c r="D22" s="91">
+      <c r="D22" s="89">
         <v>45514</v>
       </c>
-      <c r="E22" s="73" t="s">
+      <c r="E22" s="71" t="s">
         <v>85</v>
       </c>
       <c r="F22" s="18">
@@ -1708,16 +1738,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="102" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="102" t="s">
+      <c r="C23" s="102"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="100" t="s">
         <v>86</v>
       </c>
       <c r="F23" s="18">
@@ -1727,16 +1757,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="102" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="102" t="s">
+      <c r="C24" s="102"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="100" t="s">
         <v>86</v>
       </c>
       <c r="F24" s="18">
@@ -1746,16 +1776,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="102" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="102" t="s">
+      <c r="C25" s="102"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="100" t="s">
         <v>86</v>
       </c>
       <c r="F25" s="18">
@@ -1765,16 +1795,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="102" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="103" t="s">
+      <c r="B26" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="104"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="102"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="100"/>
       <c r="F26" s="24">
         <v>0</v>
       </c>
@@ -1782,385 +1812,379 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="66" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="120" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="121"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="123" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="18">
+        <v>0</v>
+      </c>
+      <c r="G27" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="119" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="121"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="123" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="18">
+        <v>0</v>
+      </c>
+      <c r="G28" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="80"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="18">
+        <v>0</v>
+      </c>
+      <c r="G29" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="124" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="125"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="18">
+        <v>0</v>
+      </c>
+      <c r="G30" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70" t="s">
+      <c r="C31" s="73">
+        <v>45505</v>
+      </c>
+      <c r="D31" s="74">
+        <v>45512</v>
+      </c>
+      <c r="E31" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="18">
+        <v>0</v>
+      </c>
+      <c r="G31" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="73">
+        <v>45515</v>
+      </c>
+      <c r="D32" s="74"/>
+      <c r="E32" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="18">
+        <v>0</v>
+      </c>
+      <c r="G32" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="105" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="106" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="107"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="109" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="18">
+        <v>0</v>
+      </c>
+      <c r="G33" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="110" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="110" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="110" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="63">
+        <v>0</v>
+      </c>
+      <c r="G34" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" s="63">
+        <v>0</v>
+      </c>
+      <c r="G35" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="66"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="18">
-        <v>0</v>
-      </c>
-      <c r="G27" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="80" t="s">
+      <c r="F36" s="18">
+        <v>0</v>
+      </c>
+      <c r="G36" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="81" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="82"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="84" t="s">
+      <c r="B37" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="66"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" s="18">
+        <v>0</v>
+      </c>
+      <c r="G37" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="66"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="18">
+        <v>0</v>
+      </c>
+      <c r="G38" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="117" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="117" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="118"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="63">
+        <v>0</v>
+      </c>
+      <c r="G39" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="117" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="117" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="118"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="63">
+        <v>0</v>
+      </c>
+      <c r="G40" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="63">
+        <v>0</v>
+      </c>
+      <c r="G41" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="85" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="85" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" s="63">
+        <v>0</v>
+      </c>
+      <c r="G42" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" s="63">
+        <v>0</v>
+      </c>
+      <c r="G43" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="86"/>
+      <c r="D44" s="86"/>
+      <c r="E44" s="85" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" s="63">
+        <v>0</v>
+      </c>
+      <c r="G44" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="113" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="114"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="F28" s="18">
-        <v>0</v>
-      </c>
-      <c r="G28" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="68"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="18">
-        <v>0</v>
-      </c>
-      <c r="G29" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="80" t="s">
+      <c r="F45" s="18">
+        <v>0</v>
+      </c>
+      <c r="G45" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="82"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="84" t="s">
+      <c r="B46" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="84"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="18">
-        <v>0</v>
-      </c>
-      <c r="G30" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="74" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="75">
-        <v>45505</v>
-      </c>
-      <c r="D31" s="76">
-        <v>45512</v>
-      </c>
-      <c r="E31" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="F31" s="18">
-        <v>0</v>
-      </c>
-      <c r="G31" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="75">
-        <v>45515</v>
-      </c>
-      <c r="D32" s="76"/>
-      <c r="E32" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="F32" s="18">
-        <v>0</v>
-      </c>
-      <c r="G32" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="74" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="112"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" s="18">
-        <v>0</v>
-      </c>
-      <c r="G33" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="F34" s="63">
-        <v>0</v>
-      </c>
-      <c r="G34" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="85" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="63">
-        <v>0</v>
-      </c>
-      <c r="G35" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="68"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="F36" s="18">
-        <v>0</v>
-      </c>
-      <c r="G36" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" s="82"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="84" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" s="18">
-        <v>0</v>
-      </c>
-      <c r="G37" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="75"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="F38" s="18">
-        <v>0</v>
-      </c>
-      <c r="G38" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="78" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="F39" s="63">
-        <v>0</v>
-      </c>
-      <c r="G39" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="F40" s="63">
-        <v>0</v>
-      </c>
-      <c r="G40" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="87" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="87" t="s">
-        <v>107</v>
-      </c>
-      <c r="F41" s="63">
-        <v>0</v>
-      </c>
-      <c r="G41" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="87" t="s">
-        <v>107</v>
-      </c>
-      <c r="F42" s="63">
-        <v>0</v>
-      </c>
-      <c r="G42" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="87" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" s="88"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="87" t="s">
-        <v>107</v>
-      </c>
-      <c r="F43" s="63">
-        <v>0</v>
-      </c>
-      <c r="G43" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" s="87" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="87" t="s">
-        <v>107</v>
-      </c>
-      <c r="F44" s="63">
-        <v>0</v>
-      </c>
-      <c r="G44" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="108" t="s">
-        <v>108</v>
-      </c>
-      <c r="C45" s="109"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="111" t="s">
-        <v>85</v>
-      </c>
-      <c r="F45" s="18">
-        <v>0</v>
-      </c>
-      <c r="G45" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="85" t="s">
-        <v>109</v>
-      </c>
-      <c r="C46" s="86"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="85" t="s">
-        <v>87</v>
-      </c>
       <c r="F46" s="63">
         <v>0</v>
       </c>
@@ -2168,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="30" t="s">
         <v>53</v>
       </c>
@@ -2189,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>55</v>
       </c>
@@ -2206,7 +2230,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="9"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>57</v>
       </c>
@@ -2216,7 +2240,7 @@
       <c r="C53" s="16"/>
       <c r="D53" s="17"/>
       <c r="E53" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F53" s="18">
         <v>0</v>
@@ -2225,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
         <v>59</v>
       </c>
@@ -2242,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="39" t="s">
         <v>61</v>
       </c>
@@ -2259,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="42" t="s">
         <v>63</v>
       </c>
@@ -2276,7 +2300,7 @@
       <c r="F56" s="43"/>
       <c r="G56" s="42"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="46" t="s">
         <v>66</v>
       </c>
@@ -2286,7 +2310,7 @@
       <c r="C57" s="48"/>
       <c r="D57" s="49"/>
       <c r="E57" s="50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F57" s="51">
         <v>0</v>
@@ -2295,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="53" t="s">
         <v>68</v>
       </c>
@@ -2305,7 +2329,7 @@
       <c r="C58" s="22"/>
       <c r="D58" s="23"/>
       <c r="E58" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F58" s="24">
         <v>0</v>
@@ -2314,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="53" t="s">
         <v>70</v>
       </c>
@@ -2324,7 +2348,7 @@
       <c r="C59" s="22"/>
       <c r="D59" s="23"/>
       <c r="E59" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F59" s="24">
         <v>0</v>
@@ -2333,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="53" t="s">
         <v>72</v>
       </c>
@@ -2343,7 +2367,7 @@
       <c r="C60" s="22"/>
       <c r="D60" s="23"/>
       <c r="E60" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F60" s="24">
         <v>0</v>
@@ -2352,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="53" t="s">
         <v>74</v>
       </c>
@@ -2362,7 +2386,7 @@
       <c r="C61" s="22"/>
       <c r="D61" s="23"/>
       <c r="E61" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F61" s="24">
         <v>0</v>
@@ -2371,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="53" t="s">
         <v>76</v>
       </c>
@@ -2381,7 +2405,7 @@
       <c r="C62" s="22"/>
       <c r="D62" s="23"/>
       <c r="E62" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F62" s="24">
         <v>0</v>
@@ -2390,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="53" t="s">
         <v>78</v>
       </c>
@@ -2400,7 +2424,7 @@
       <c r="C63" s="22"/>
       <c r="D63" s="23"/>
       <c r="E63" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F63" s="24">
         <v>0</v>
@@ -2409,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="56" t="s">
         <v>80</v>
       </c>

--- a/Projeto/BDII_ControloProgressoProjecto_v2.xlsx
+++ b/Projeto/BDII_ControloProgressoProjecto_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\BD2\restauro_de_veiculos\Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CE40EC-3F37-46B2-A236-984B1E52BA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1E72E0-121D-492F-8FA6-4CA652C7F354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1875" windowWidth="19440" windowHeight="14880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracking Projecto" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="111">
   <si>
     <t>Data Relatório:</t>
   </si>
@@ -336,9 +336,6 @@
     <t xml:space="preserve">    Página 11 (Adminsitrador) -&gt; editar dados de um veiculo</t>
   </si>
   <si>
-    <t xml:space="preserve">    Página 12 (Adminsitrador) -&gt; editar reparos</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Página 13 (Adminsitrador) -&gt; Exportação e importação de tarefas de restauro de viaturas (JSON ou XML</t>
   </si>
   <si>
@@ -358,6 +355,12 @@
   </si>
   <si>
     <t xml:space="preserve">    Página 10 (Adminsitrador) -&gt; editar dados dos cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Página 15 (Adminsitrador)-&gt; Apagar fatura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Página 12 (Adminsitrador) -&gt; apagar reparo</t>
   </si>
 </sst>
 </file>
@@ -1322,8 +1325,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1817,12 +1820,12 @@
         <v>50</v>
       </c>
       <c r="B27" s="120" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C27" s="121"/>
       <c r="D27" s="122"/>
       <c r="E27" s="123" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F27" s="18">
         <v>0</v>
@@ -1841,7 +1844,7 @@
       <c r="C28" s="121"/>
       <c r="D28" s="122"/>
       <c r="E28" s="123" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F28" s="18">
         <v>0</v>
@@ -1874,7 +1877,7 @@
         <v>51</v>
       </c>
       <c r="B30" s="124" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" s="125"/>
       <c r="D30" s="126"/>
@@ -1940,7 +1943,7 @@
       <c r="C33" s="107"/>
       <c r="D33" s="108"/>
       <c r="E33" s="109" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F33" s="18">
         <v>0</v>
@@ -2083,7 +2086,7 @@
         <v>51</v>
       </c>
       <c r="B41" s="76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C41" s="77"/>
       <c r="D41" s="77"/>
@@ -2107,7 +2110,7 @@
       <c r="C42" s="86"/>
       <c r="D42" s="86"/>
       <c r="E42" s="85" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F42" s="63">
         <v>0</v>
@@ -2121,7 +2124,7 @@
         <v>51</v>
       </c>
       <c r="B43" s="69" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C43" s="70"/>
       <c r="D43" s="70"/>
@@ -2140,12 +2143,12 @@
         <v>51</v>
       </c>
       <c r="B44" s="85" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C44" s="86"/>
       <c r="D44" s="86"/>
       <c r="E44" s="85" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F44" s="63">
         <v>0</v>
@@ -2159,7 +2162,7 @@
         <v>51</v>
       </c>
       <c r="B45" s="113" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C45" s="114"/>
       <c r="D45" s="115"/>
@@ -2178,7 +2181,7 @@
         <v>51</v>
       </c>
       <c r="B46" s="83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C46" s="84"/>
       <c r="D46" s="84"/>
@@ -2189,6 +2192,25 @@
         <v>0</v>
       </c>
       <c r="G46" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="83" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="84"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="F47" s="63">
+        <v>0</v>
+      </c>
+      <c r="G47" s="63">
         <v>0</v>
       </c>
     </row>
